--- a/core/utils/distgradeunificadaITAPEVI.xlsx
+++ b/core/utils/distgradeunificadaITAPEVI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3EB0E9-8246-4F17-9E41-941526D29FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED88C24C-B2E7-4A3C-9B52-9DD14AF5D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1169,8 +1169,8 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I153" sqref="I153"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z197" sqref="Z197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaITAPEVI.xlsx
+++ b/core/utils/distgradeunificadaITAPEVI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED88C24C-B2E7-4A3C-9B52-9DD14AF5D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB86A0-3CBA-404C-BF42-6433F7C15BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1169,8 +1169,8 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z197" sqref="Z197"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaITAPEVI.xlsx
+++ b/core/utils/distgradeunificadaITAPEVI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB86A0-3CBA-404C-BF42-6433F7C15BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64444F37-9D70-4C69-9DAE-CAD55C7DF226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="226">
   <si>
     <t>PROJETO</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>unissex</t>
+  </si>
+  <si>
+    <t>CALÇA EM MOLETOM</t>
+  </si>
+  <si>
+    <t>BLUSA EM MOLETOM</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +787,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -822,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,6 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,11 +1180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AA203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,20 +3956,20 @@
       <c r="AA66" s="12"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>93</v>
+      <c r="D67" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>92</v>
@@ -3983,52 +3997,64 @@
       <c r="AA67" s="12"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
+      <c r="A68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -4053,55 +4079,43 @@
       <c r="AA69" s="12"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>156</v>
+      <c r="A71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>213</v>
@@ -4110,7 +4124,7 @@
         <v>94</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -4135,14 +4149,14 @@
       <c r="AA71" s="12"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>7</v>
+      <c r="A72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>213</v>
@@ -4151,7 +4165,7 @@
         <v>94</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -4176,14 +4190,14 @@
       <c r="AA72" s="12"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>157</v>
+      <c r="A73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>213</v>
@@ -4192,7 +4206,7 @@
         <v>94</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -4217,14 +4231,14 @@
       <c r="AA73" s="12"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>8</v>
+      <c r="A74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>213</v>
@@ -4233,7 +4247,7 @@
         <v>94</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -4262,10 +4276,10 @@
         <v>18</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>213</v>
@@ -4274,7 +4288,7 @@
         <v>94</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -4303,10 +4317,10 @@
         <v>18</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>213</v>
@@ -4315,7 +4329,7 @@
         <v>94</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -4344,10 +4358,10 @@
         <v>18</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>213</v>
@@ -4356,7 +4370,7 @@
         <v>94</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -4385,10 +4399,10 @@
         <v>18</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>213</v>
@@ -4397,7 +4411,7 @@
         <v>94</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -4426,10 +4440,10 @@
         <v>18</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>213</v>
@@ -4438,7 +4452,7 @@
         <v>94</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -4467,10 +4481,10 @@
         <v>18</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>213</v>
@@ -4479,7 +4493,7 @@
         <v>94</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -4508,10 +4522,10 @@
         <v>18</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>213</v>
@@ -4520,7 +4534,7 @@
         <v>94</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -4549,10 +4563,10 @@
         <v>18</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>213</v>
@@ -4561,7 +4575,7 @@
         <v>94</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -4590,10 +4604,10 @@
         <v>18</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>213</v>
@@ -4602,7 +4616,7 @@
         <v>94</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -4631,10 +4645,10 @@
         <v>18</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>213</v>
@@ -4643,7 +4657,7 @@
         <v>94</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -4672,10 +4686,10 @@
         <v>18</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>213</v>
@@ -4684,7 +4698,7 @@
         <v>94</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -4713,10 +4727,10 @@
         <v>18</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>213</v>
@@ -4725,7 +4739,7 @@
         <v>94</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -4754,10 +4768,10 @@
         <v>18</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>213</v>
@@ -4766,7 +4780,7 @@
         <v>94</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -4795,10 +4809,10 @@
         <v>18</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>213</v>
@@ -4807,7 +4821,7 @@
         <v>94</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -4836,10 +4850,10 @@
         <v>18</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>213</v>
@@ -4848,7 +4862,7 @@
         <v>94</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -4877,10 +4891,10 @@
         <v>18</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>213</v>
@@ -4889,7 +4903,7 @@
         <v>94</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -4918,10 +4932,10 @@
         <v>18</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>213</v>
@@ -4930,7 +4944,7 @@
         <v>94</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -4959,10 +4973,10 @@
         <v>18</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>213</v>
@@ -4971,7 +4985,7 @@
         <v>94</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -5000,10 +5014,10 @@
         <v>18</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>213</v>
@@ -5012,7 +5026,7 @@
         <v>94</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -5041,10 +5055,10 @@
         <v>18</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>213</v>
@@ -5053,7 +5067,7 @@
         <v>94</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -5082,10 +5096,10 @@
         <v>18</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>213</v>
@@ -5094,7 +5108,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -5123,10 +5137,10 @@
         <v>18</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>213</v>
@@ -5135,7 +5149,7 @@
         <v>94</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -5160,14 +5174,14 @@
       <c r="AA96" s="12"/>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>175</v>
+      <c r="A97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>213</v>
@@ -5176,7 +5190,7 @@
         <v>94</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -5205,10 +5219,10 @@
         <v>18</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>213</v>
@@ -5217,7 +5231,7 @@
         <v>94</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -5242,14 +5256,14 @@
       <c r="AA98" s="12"/>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>177</v>
+      <c r="A99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>213</v>
@@ -5258,7 +5272,7 @@
         <v>94</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -5287,10 +5301,10 @@
         <v>18</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>213</v>
@@ -5299,7 +5313,7 @@
         <v>94</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -5328,10 +5342,10 @@
         <v>18</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>213</v>
@@ -5340,7 +5354,7 @@
         <v>94</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -5369,10 +5383,10 @@
         <v>18</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>213</v>
@@ -5381,7 +5395,7 @@
         <v>94</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
@@ -5410,10 +5424,10 @@
         <v>18</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>213</v>
@@ -5422,7 +5436,7 @@
         <v>94</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -5451,10 +5465,10 @@
         <v>18</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>213</v>
@@ -5463,7 +5477,7 @@
         <v>94</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -5492,10 +5506,10 @@
         <v>18</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>213</v>
@@ -5504,7 +5518,7 @@
         <v>94</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -5533,10 +5547,10 @@
         <v>18</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>213</v>
@@ -5545,7 +5559,7 @@
         <v>94</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -5574,10 +5588,10 @@
         <v>18</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>213</v>
@@ -5586,7 +5600,7 @@
         <v>94</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -5615,10 +5629,10 @@
         <v>18</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>213</v>
@@ -5627,7 +5641,7 @@
         <v>94</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -5656,10 +5670,10 @@
         <v>18</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>213</v>
@@ -5668,7 +5682,7 @@
         <v>94</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -5697,10 +5711,10 @@
         <v>18</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>213</v>
@@ -5709,7 +5723,7 @@
         <v>94</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -5734,14 +5748,14 @@
       <c r="AA110" s="12"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>189</v>
+      <c r="A111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>213</v>
@@ -5750,7 +5764,7 @@
         <v>94</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -5779,10 +5793,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>213</v>
@@ -5791,7 +5805,7 @@
         <v>94</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -5816,14 +5830,14 @@
       <c r="AA112" s="12"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>191</v>
+      <c r="A113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>213</v>
@@ -5832,7 +5846,7 @@
         <v>94</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -5861,10 +5875,10 @@
         <v>18</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>213</v>
@@ -5873,7 +5887,7 @@
         <v>94</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -5902,10 +5916,10 @@
         <v>18</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>213</v>
@@ -5914,7 +5928,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -5943,10 +5957,10 @@
         <v>18</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>213</v>
@@ -5955,7 +5969,7 @@
         <v>94</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -5984,10 +5998,10 @@
         <v>18</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>213</v>
@@ -5996,7 +6010,7 @@
         <v>94</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -6025,10 +6039,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>213</v>
@@ -6037,7 +6051,7 @@
         <v>94</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
@@ -6066,10 +6080,10 @@
         <v>18</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>213</v>
@@ -6078,7 +6092,7 @@
         <v>94</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -6107,10 +6121,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>213</v>
@@ -6119,7 +6133,7 @@
         <v>94</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -6148,10 +6162,10 @@
         <v>18</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>213</v>
@@ -6160,7 +6174,7 @@
         <v>94</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -6189,10 +6203,10 @@
         <v>18</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>213</v>
@@ -6201,7 +6215,7 @@
         <v>94</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -6230,10 +6244,10 @@
         <v>18</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>213</v>
@@ -6242,7 +6256,7 @@
         <v>94</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
@@ -6271,10 +6285,10 @@
         <v>18</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>213</v>
@@ -6283,7 +6297,7 @@
         <v>94</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -6308,14 +6322,14 @@
       <c r="AA124" s="12"/>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>203</v>
+      <c r="A125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>213</v>
@@ -6324,7 +6338,7 @@
         <v>94</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -6349,14 +6363,14 @@
       <c r="AA125" s="12"/>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>204</v>
+      <c r="A126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>213</v>
@@ -6365,7 +6379,7 @@
         <v>94</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -6394,10 +6408,10 @@
         <v>18</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>213</v>
@@ -6406,7 +6420,7 @@
         <v>94</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -6431,14 +6445,14 @@
       <c r="AA127" s="12"/>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>206</v>
+      <c r="A128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>213</v>
@@ -6447,7 +6461,7 @@
         <v>94</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -6472,14 +6486,14 @@
       <c r="AA128" s="12"/>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>207</v>
+      <c r="A129" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>213</v>
@@ -6488,7 +6502,7 @@
         <v>94</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -6517,10 +6531,10 @@
         <v>18</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>213</v>
@@ -6529,7 +6543,7 @@
         <v>94</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -6558,10 +6572,10 @@
         <v>18</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>213</v>
@@ -6570,7 +6584,7 @@
         <v>94</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -6595,14 +6609,14 @@
       <c r="AA131" s="12"/>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>210</v>
+      <c r="A132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>213</v>
@@ -6611,7 +6625,7 @@
         <v>94</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
@@ -6640,10 +6654,10 @@
         <v>18</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>213</v>
@@ -6652,7 +6666,7 @@
         <v>94</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -6677,14 +6691,14 @@
       <c r="AA133" s="12"/>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>212</v>
+      <c r="A134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>213</v>
@@ -6693,7 +6707,7 @@
         <v>94</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -6718,52 +6732,64 @@
       <c r="AA134" s="12"/>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
-      <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
-      <c r="O135" s="13"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="13"/>
-      <c r="R135" s="13"/>
-      <c r="S135" s="13"/>
-      <c r="T135" s="13"/>
-      <c r="U135" s="13"/>
-      <c r="V135" s="13"/>
-      <c r="W135" s="13"/>
-      <c r="X135" s="13"/>
-      <c r="Y135" s="13"/>
-      <c r="Z135" s="13"/>
-      <c r="AA135" s="13"/>
+      <c r="A135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="12"/>
+      <c r="Y135" s="12"/>
+      <c r="Z135" s="12"/>
+      <c r="AA135" s="12"/>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
@@ -6778,65 +6804,53 @@
       <c r="Q136" s="12"/>
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
-      <c r="T136" s="14"/>
-      <c r="U136" s="14"/>
-      <c r="V136" s="14"/>
-      <c r="W136" s="14"/>
-      <c r="X136" s="14"/>
-      <c r="Y136" s="14"/>
-      <c r="Z136" s="14"/>
-      <c r="AA136" s="14"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
+      <c r="Z136" s="12"/>
+      <c r="AA136" s="12"/>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="12"/>
-      <c r="P137" s="12"/>
-      <c r="Q137" s="12"/>
-      <c r="R137" s="12"/>
-      <c r="S137" s="12"/>
-      <c r="T137" s="14"/>
-      <c r="U137" s="14"/>
-      <c r="V137" s="14"/>
-      <c r="W137" s="14"/>
-      <c r="X137" s="14"/>
-      <c r="Y137" s="14"/>
-      <c r="Z137" s="14"/>
-      <c r="AA137" s="14"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="13"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="13"/>
+      <c r="R137" s="13"/>
+      <c r="S137" s="13"/>
+      <c r="T137" s="13"/>
+      <c r="U137" s="13"/>
+      <c r="V137" s="13"/>
+      <c r="W137" s="13"/>
+      <c r="X137" s="13"/>
+      <c r="Y137" s="13"/>
+      <c r="Z137" s="13"/>
+      <c r="AA137" s="13"/>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>156</v>
+      <c r="A138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>214</v>
@@ -6845,7 +6859,7 @@
         <v>154</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
@@ -6870,14 +6884,14 @@
       <c r="AA138" s="14"/>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>7</v>
+      <c r="A139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>214</v>
@@ -6886,7 +6900,7 @@
         <v>154</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -6911,14 +6925,14 @@
       <c r="AA139" s="14"/>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>157</v>
+      <c r="A140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>214</v>
@@ -6927,7 +6941,7 @@
         <v>154</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -6952,14 +6966,14 @@
       <c r="AA140" s="14"/>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>8</v>
+      <c r="A141" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>214</v>
@@ -6968,7 +6982,7 @@
         <v>154</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -6997,10 +7011,10 @@
         <v>18</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>214</v>
@@ -7009,7 +7023,7 @@
         <v>154</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -7038,10 +7052,10 @@
         <v>18</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>214</v>
@@ -7050,7 +7064,7 @@
         <v>154</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
@@ -7079,10 +7093,10 @@
         <v>18</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>214</v>
@@ -7091,7 +7105,7 @@
         <v>154</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
@@ -7120,10 +7134,10 @@
         <v>18</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>214</v>
@@ -7132,7 +7146,7 @@
         <v>154</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
@@ -7161,10 +7175,10 @@
         <v>18</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>214</v>
@@ -7173,7 +7187,7 @@
         <v>154</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
@@ -7202,10 +7216,10 @@
         <v>18</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>214</v>
@@ -7214,7 +7228,7 @@
         <v>154</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -7243,10 +7257,10 @@
         <v>18</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>214</v>
@@ -7255,7 +7269,7 @@
         <v>154</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -7284,10 +7298,10 @@
         <v>18</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>214</v>
@@ -7296,7 +7310,7 @@
         <v>154</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -7325,10 +7339,10 @@
         <v>18</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>214</v>
@@ -7337,7 +7351,7 @@
         <v>154</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
@@ -7366,10 +7380,10 @@
         <v>18</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>214</v>
@@ -7378,7 +7392,7 @@
         <v>154</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -7407,10 +7421,10 @@
         <v>18</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>214</v>
@@ -7419,7 +7433,7 @@
         <v>154</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -7448,10 +7462,10 @@
         <v>18</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>214</v>
@@ -7460,7 +7474,7 @@
         <v>154</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -7489,10 +7503,10 @@
         <v>18</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>214</v>
@@ -7501,7 +7515,7 @@
         <v>154</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -7530,10 +7544,10 @@
         <v>18</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>214</v>
@@ -7542,7 +7556,7 @@
         <v>154</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -7571,10 +7585,10 @@
         <v>18</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>214</v>
@@ -7583,7 +7597,7 @@
         <v>154</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
@@ -7612,10 +7626,10 @@
         <v>18</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>214</v>
@@ -7624,7 +7638,7 @@
         <v>154</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
@@ -7653,10 +7667,10 @@
         <v>18</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>214</v>
@@ -7665,7 +7679,7 @@
         <v>154</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -7694,10 +7708,10 @@
         <v>18</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>214</v>
@@ -7706,7 +7720,7 @@
         <v>154</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -7735,10 +7749,10 @@
         <v>18</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>214</v>
@@ -7747,7 +7761,7 @@
         <v>154</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -7776,10 +7790,10 @@
         <v>18</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>214</v>
@@ -7788,7 +7802,7 @@
         <v>154</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -7817,10 +7831,10 @@
         <v>18</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>214</v>
@@ -7829,7 +7843,7 @@
         <v>154</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
@@ -7858,10 +7872,10 @@
         <v>18</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>214</v>
@@ -7870,7 +7884,7 @@
         <v>154</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -7895,14 +7909,14 @@
       <c r="AA163" s="14"/>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>175</v>
+      <c r="A164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>214</v>
@@ -7911,7 +7925,7 @@
         <v>154</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -7940,10 +7954,10 @@
         <v>18</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>214</v>
@@ -7952,7 +7966,7 @@
         <v>154</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -7977,14 +7991,14 @@
       <c r="AA165" s="14"/>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>177</v>
+      <c r="A166" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>214</v>
@@ -7993,7 +8007,7 @@
         <v>154</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -8022,10 +8036,10 @@
         <v>18</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>214</v>
@@ -8034,7 +8048,7 @@
         <v>154</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -8063,10 +8077,10 @@
         <v>18</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>214</v>
@@ -8075,7 +8089,7 @@
         <v>154</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -8104,10 +8118,10 @@
         <v>18</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>214</v>
@@ -8116,7 +8130,7 @@
         <v>154</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -8145,10 +8159,10 @@
         <v>18</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>214</v>
@@ -8157,7 +8171,7 @@
         <v>154</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
@@ -8186,10 +8200,10 @@
         <v>18</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>214</v>
@@ -8198,7 +8212,7 @@
         <v>154</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -8227,10 +8241,10 @@
         <v>18</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>214</v>
@@ -8239,7 +8253,7 @@
         <v>154</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
@@ -8268,10 +8282,10 @@
         <v>18</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>214</v>
@@ -8280,7 +8294,7 @@
         <v>154</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
@@ -8309,10 +8323,10 @@
         <v>18</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>214</v>
@@ -8321,7 +8335,7 @@
         <v>154</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
@@ -8350,10 +8364,10 @@
         <v>18</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>214</v>
@@ -8362,7 +8376,7 @@
         <v>154</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -8391,10 +8405,10 @@
         <v>18</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>214</v>
@@ -8403,7 +8417,7 @@
         <v>154</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -8432,10 +8446,10 @@
         <v>18</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>214</v>
@@ -8444,7 +8458,7 @@
         <v>154</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -8469,14 +8483,14 @@
       <c r="AA177" s="14"/>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>189</v>
+      <c r="A178" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>214</v>
@@ -8485,7 +8499,7 @@
         <v>154</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -8514,10 +8528,10 @@
         <v>18</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>214</v>
@@ -8526,7 +8540,7 @@
         <v>154</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -8551,14 +8565,14 @@
       <c r="AA179" s="14"/>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>191</v>
+      <c r="A180" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>214</v>
@@ -8567,7 +8581,7 @@
         <v>154</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -8596,10 +8610,10 @@
         <v>18</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>214</v>
@@ -8608,7 +8622,7 @@
         <v>154</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -8637,10 +8651,10 @@
         <v>18</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>214</v>
@@ -8649,7 +8663,7 @@
         <v>154</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -8678,10 +8692,10 @@
         <v>18</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>214</v>
@@ -8690,7 +8704,7 @@
         <v>154</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -8719,10 +8733,10 @@
         <v>18</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>214</v>
@@ -8731,7 +8745,7 @@
         <v>154</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -8760,10 +8774,10 @@
         <v>18</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>214</v>
@@ -8772,7 +8786,7 @@
         <v>154</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -8801,10 +8815,10 @@
         <v>18</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>214</v>
@@ -8813,7 +8827,7 @@
         <v>154</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -8842,10 +8856,10 @@
         <v>18</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>214</v>
@@ -8854,7 +8868,7 @@
         <v>154</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -8883,10 +8897,10 @@
         <v>18</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>214</v>
@@ -8895,7 +8909,7 @@
         <v>154</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -8924,10 +8938,10 @@
         <v>18</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>214</v>
@@ -8936,7 +8950,7 @@
         <v>154</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -8965,10 +8979,10 @@
         <v>18</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>214</v>
@@ -8977,7 +8991,7 @@
         <v>154</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -9006,10 +9020,10 @@
         <v>18</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>214</v>
@@ -9018,7 +9032,7 @@
         <v>154</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -9043,14 +9057,14 @@
       <c r="AA191" s="14"/>
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>203</v>
+      <c r="A192" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>214</v>
@@ -9059,7 +9073,7 @@
         <v>154</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
@@ -9084,14 +9098,14 @@
       <c r="AA192" s="14"/>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>204</v>
+      <c r="A193" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>214</v>
@@ -9100,7 +9114,7 @@
         <v>154</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -9129,10 +9143,10 @@
         <v>18</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>214</v>
@@ -9141,7 +9155,7 @@
         <v>154</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -9166,14 +9180,14 @@
       <c r="AA194" s="14"/>
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>206</v>
+      <c r="A195" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>214</v>
@@ -9182,7 +9196,7 @@
         <v>154</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -9207,14 +9221,14 @@
       <c r="AA195" s="14"/>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>207</v>
+      <c r="A196" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>214</v>
@@ -9223,7 +9237,7 @@
         <v>154</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -9252,10 +9266,10 @@
         <v>18</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>214</v>
@@ -9264,7 +9278,7 @@
         <v>154</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
@@ -9293,10 +9307,10 @@
         <v>18</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>214</v>
@@ -9305,7 +9319,7 @@
         <v>154</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
@@ -9330,14 +9344,14 @@
       <c r="AA198" s="14"/>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>210</v>
+      <c r="A199" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>214</v>
@@ -9346,7 +9360,7 @@
         <v>154</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -9375,10 +9389,10 @@
         <v>18</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>214</v>
@@ -9387,7 +9401,7 @@
         <v>154</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -9412,14 +9426,14 @@
       <c r="AA200" s="14"/>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>212</v>
+      <c r="A201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>214</v>
@@ -9428,7 +9442,7 @@
         <v>154</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -9452,6 +9466,88 @@
       <c r="Z201" s="14"/>
       <c r="AA201" s="14"/>
     </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="12"/>
+      <c r="S202" s="12"/>
+      <c r="T202" s="14"/>
+      <c r="U202" s="14"/>
+      <c r="V202" s="14"/>
+      <c r="W202" s="14"/>
+      <c r="X202" s="14"/>
+      <c r="Y202" s="14"/>
+      <c r="Z202" s="14"/>
+      <c r="AA202" s="14"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="12"/>
+      <c r="T203" s="14"/>
+      <c r="U203" s="14"/>
+      <c r="V203" s="14"/>
+      <c r="W203" s="14"/>
+      <c r="X203" s="14"/>
+      <c r="Y203" s="14"/>
+      <c r="Z203" s="14"/>
+      <c r="AA203" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaITAPEVI.xlsx
+++ b/core/utils/distgradeunificadaITAPEVI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64444F37-9D70-4C69-9DAE-CAD55C7DF226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB6CC2-E9B1-4916-8394-469B9BD2A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1183,8 +1183,8 @@
   <dimension ref="A1:AA203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J191" sqref="J191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
